--- a/biology/Botanique/Hohenbergia/Hohenbergia.xlsx
+++ b/biology/Botanique/Hohenbergia/Hohenbergia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hohenbergia est un genre de plantes de la famille des Bromeliaceae regroupant au moins 35 espèces qui se rencontrent dans les Caraïbes, en Colombie, au Venezuela et au Brésil.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (10 février 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (10 février 2019) :
 Hohenbergia abbreviata L.B. Sm. &amp; Proctor
 Hohenbergia aechmeoides Leme
 Hohenbergia andina Betancur
@@ -577,7 +591,7 @@
 Hohenbergia urbaniana Mez
 Hohenbergia utriculosa Ule
 Hohenbergia vestita L.B. Sm.
-Selon Catalogue of Life                                   (10 février 2019)[3] :
+Selon Catalogue of Life                                   (10 février 2019) :
 Hohenbergia abbreviata L.B.Sm. &amp; Proctor
 Hohenbergia aechmeoides Leme
 Hohenbergia andina Betancur
@@ -644,7 +658,7 @@
 Hohenbergia utriculosa Ule
 Hohenbergia vestita L.B.Sm.
 Hohenbergia viridirubra Leme
-Selon World Checklist of Selected Plant Families (WCSP)  (10 février 2019)[1] :
+Selon World Checklist of Selected Plant Families (WCSP)  (10 février 2019) :
 Hohenbergia aechmeoides Leme (2010)
 Hohenbergia andina Betancur (1991 publ. 1991)
 Hohenbergia arcuata Leme &amp; M.Machado (2010)
@@ -697,7 +711,7 @@
 Hohenbergia utriculosa Ule (1908)
 Hohenbergia vestita L.B.Sm. (1972)
 Hohenbergia viridirubra Leme (2013)
-Selon The Plant List            (10 février 2019)[4] :
+Selon The Plant List            (10 février 2019) :
 Hohenbergia abbreviata L.B.Sm. &amp; Proctor
 Hohenbergia aechmeoides Leme
 Hohenbergia andina Betancur
@@ -760,7 +774,7 @@
 Hohenbergia urbaniana Mez
 Hohenbergia utriculosa Ule
 Hohenbergia vestita L.B.Sm.
-Selon Tropicos                                           (10 février 2019)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (10 février 2019) (Attention liste brute contenant possiblement des synonymes) :
 Hohenbergia abbreviata L.B. Sm. &amp; Proctor
 Hohenbergia aechmeoides Leme
 Hohenbergia andina Betancur
